--- a/data/negative_signals/Indirectly connected (A-X-B) - Levothyroxine sodium - agranulocytosis.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Levothyroxine sodium - agranulocytosis.xlsx
@@ -173,6 +173,660 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>3814847</t>
+  </si>
+  <si>
+    <t>propylthiouracil</t>
+  </si>
+  <si>
+    <t>3170842</t>
+  </si>
+  <si>
+    <t>agranulocytosis</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>17474564</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>17932939</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>88939278</t>
+  </si>
+  <si>
+    <t>does not cause</t>
+  </si>
+  <si>
+    <t>123130866</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>51274674</t>
+  </si>
+  <si>
+    <t>does not affect</t>
+  </si>
+  <si>
+    <t>16262624</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>54006418</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>760557</t>
+  </si>
+  <si>
+    <t>mercazol</t>
+  </si>
+  <si>
+    <t>22827526</t>
+  </si>
+  <si>
+    <t>23681541</t>
+  </si>
+  <si>
+    <t>14204742</t>
+  </si>
+  <si>
+    <t>530621</t>
+  </si>
+  <si>
+    <t>thyrozol</t>
+  </si>
+  <si>
+    <t>23681536</t>
+  </si>
+  <si>
+    <t>22827386</t>
+  </si>
+  <si>
+    <t>14204732</t>
+  </si>
+  <si>
+    <t>51385</t>
+  </si>
+  <si>
+    <t>thiamazol henning</t>
+  </si>
+  <si>
+    <t>23681537</t>
+  </si>
+  <si>
+    <t>22827414</t>
+  </si>
+  <si>
+    <t>14204734</t>
+  </si>
+  <si>
+    <t>3364631</t>
+  </si>
+  <si>
+    <t>tapazole</t>
+  </si>
+  <si>
+    <t>23681532</t>
+  </si>
+  <si>
+    <t>22827260</t>
+  </si>
+  <si>
+    <t>14204724</t>
+  </si>
+  <si>
+    <t>3358847</t>
+  </si>
+  <si>
+    <t>metisol</t>
+  </si>
+  <si>
+    <t>22827290</t>
+  </si>
+  <si>
+    <t>23681533</t>
+  </si>
+  <si>
+    <t>14204726</t>
+  </si>
+  <si>
+    <t>2824587</t>
+  </si>
+  <si>
+    <t>strumazol</t>
+  </si>
+  <si>
+    <t>22827325</t>
+  </si>
+  <si>
+    <t>23681534</t>
+  </si>
+  <si>
+    <t>14204728</t>
+  </si>
+  <si>
+    <t>2824584</t>
+  </si>
+  <si>
+    <t>thiamazol hexal</t>
+  </si>
+  <si>
+    <t>22827442</t>
+  </si>
+  <si>
+    <t>23681538</t>
+  </si>
+  <si>
+    <t>14204736</t>
+  </si>
+  <si>
+    <t>2824475</t>
+  </si>
+  <si>
+    <t>tirodril</t>
+  </si>
+  <si>
+    <t>22827358</t>
+  </si>
+  <si>
+    <t>23681535</t>
+  </si>
+  <si>
+    <t>14204730</t>
+  </si>
+  <si>
+    <t>272715</t>
+  </si>
+  <si>
+    <t>methizol</t>
+  </si>
+  <si>
+    <t>23681542</t>
+  </si>
+  <si>
+    <t>22827554</t>
+  </si>
+  <si>
+    <t>14204744</t>
+  </si>
+  <si>
+    <t>2364704</t>
+  </si>
+  <si>
+    <t>favistan</t>
+  </si>
+  <si>
+    <t>23681540</t>
+  </si>
+  <si>
+    <t>22827498</t>
+  </si>
+  <si>
+    <t>14204740</t>
+  </si>
+  <si>
+    <t>61527387</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>1731240</t>
+  </si>
+  <si>
+    <t>tp53 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>Genes &amp; Molecular Sequences</t>
+  </si>
+  <si>
+    <t>23307556</t>
+  </si>
+  <si>
+    <t>22444830</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>28566120</t>
+  </si>
+  <si>
+    <t>gene product is biomarker type</t>
+  </si>
+  <si>
+    <t>4027386</t>
+  </si>
+  <si>
+    <t>methimazole</t>
+  </si>
+  <si>
+    <t>22827470</t>
+  </si>
+  <si>
+    <t>95252251</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>23681539</t>
+  </si>
+  <si>
+    <t>52657528</t>
+  </si>
+  <si>
+    <t>71001933</t>
+  </si>
+  <si>
+    <t>14204738</t>
+  </si>
+  <si>
+    <t>87483931</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>58430972</t>
+  </si>
+  <si>
+    <t>51646606</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>62710001</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>4048501</t>
+  </si>
+  <si>
+    <t>hydrogen peroxide</t>
+  </si>
+  <si>
+    <t>18092863</t>
+  </si>
+  <si>
+    <t>67593125</t>
+  </si>
+  <si>
+    <t>88656659</t>
+  </si>
+  <si>
+    <t>4049124</t>
+  </si>
+  <si>
+    <t>hyperthyroidism</t>
+  </si>
+  <si>
+    <t>16511173</t>
+  </si>
+  <si>
+    <t>40028679</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>63245819</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>2476543</t>
+  </si>
+  <si>
+    <t>tnf (homo sapiens)</t>
+  </si>
+  <si>
+    <t>23948919</t>
+  </si>
+  <si>
+    <t>101415098</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>28566099</t>
+  </si>
+  <si>
+    <t>790153</t>
+  </si>
+  <si>
+    <t>hepatitis, drug-induced</t>
+  </si>
+  <si>
+    <t>16510491</t>
+  </si>
+  <si>
+    <t>112768136</t>
+  </si>
+  <si>
+    <t>4989214</t>
+  </si>
+  <si>
+    <t>autoimmune hemolytic anemia</t>
+  </si>
+  <si>
+    <t>16509734</t>
+  </si>
+  <si>
+    <t>40126300</t>
+  </si>
+  <si>
+    <t>3814649</t>
+  </si>
+  <si>
+    <t>seizures</t>
+  </si>
+  <si>
+    <t>16513502</t>
+  </si>
+  <si>
+    <t>40126304</t>
+  </si>
+  <si>
+    <t>3170803</t>
+  </si>
+  <si>
+    <t>abdominal pain</t>
+  </si>
+  <si>
+    <t>16509526</t>
+  </si>
+  <si>
+    <t>40126363</t>
+  </si>
+  <si>
+    <t>2069033</t>
+  </si>
+  <si>
+    <t>ugt1a1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>20743114</t>
+  </si>
+  <si>
+    <t>is tributary of</t>
+  </si>
+  <si>
+    <t>23444629</t>
+  </si>
+  <si>
+    <t>28311568</t>
+  </si>
+  <si>
+    <t>gene product variant causes</t>
+  </si>
+  <si>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>52186077</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>53855626</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>52518918</t>
+  </si>
+  <si>
+    <t>104841062</t>
+  </si>
+  <si>
+    <t>complicates</t>
+  </si>
+  <si>
+    <t>51930910</t>
+  </si>
+  <si>
+    <t>52177029</t>
+  </si>
+  <si>
+    <t>51917529</t>
+  </si>
+  <si>
+    <t>70248875</t>
+  </si>
+  <si>
+    <t>123319893</t>
+  </si>
+  <si>
+    <t>432075</t>
+  </si>
+  <si>
+    <t>anemia</t>
+  </si>
+  <si>
+    <t>16509638</t>
+  </si>
+  <si>
+    <t>40126154</t>
+  </si>
+  <si>
+    <t>59972887</t>
+  </si>
+  <si>
+    <t>57244404</t>
+  </si>
+  <si>
+    <t>59973082</t>
+  </si>
+  <si>
+    <t>836319</t>
+  </si>
+  <si>
+    <t>drug toxicity</t>
+  </si>
+  <si>
+    <t>16510713</t>
+  </si>
+  <si>
+    <t>79060905</t>
+  </si>
+  <si>
+    <t>607167</t>
+  </si>
+  <si>
+    <t>hypertensive disease</t>
+  </si>
+  <si>
+    <t>16511122</t>
+  </si>
+  <si>
+    <t>16511094</t>
+  </si>
+  <si>
+    <t>71204873</t>
+  </si>
+  <si>
+    <t>527091</t>
+  </si>
+  <si>
+    <t>liver diseases</t>
+  </si>
+  <si>
+    <t>16512349</t>
+  </si>
+  <si>
+    <t>54341204</t>
+  </si>
+  <si>
+    <t>5011221</t>
+  </si>
+  <si>
+    <t>vomiting</t>
+  </si>
+  <si>
+    <t>16513754</t>
+  </si>
+  <si>
+    <t>112922995</t>
+  </si>
+  <si>
+    <t>4868219</t>
+  </si>
+  <si>
+    <t>liver dysfunction</t>
+  </si>
+  <si>
+    <t>16512348</t>
+  </si>
+  <si>
+    <t>71280862</t>
+  </si>
+  <si>
+    <t>4048874</t>
+  </si>
+  <si>
+    <t>nausea</t>
+  </si>
+  <si>
+    <t>16512802</t>
+  </si>
+  <si>
+    <t>112735361</t>
+  </si>
+  <si>
+    <t>4047527</t>
+  </si>
+  <si>
+    <t>graves disease</t>
+  </si>
+  <si>
+    <t>16510898</t>
+  </si>
+  <si>
+    <t>115396532</t>
+  </si>
+  <si>
+    <t>66232318</t>
+  </si>
+  <si>
+    <t>61621375</t>
+  </si>
+  <si>
+    <t>40126183</t>
+  </si>
+  <si>
+    <t>68971750</t>
+  </si>
+  <si>
+    <t>4028736</t>
+  </si>
+  <si>
+    <t>necrosis</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>16512830</t>
+  </si>
+  <si>
+    <t>57218633</t>
+  </si>
+  <si>
+    <t>60323832</t>
+  </si>
+  <si>
+    <t>3815826</t>
+  </si>
+  <si>
+    <t>thyroid diseases</t>
+  </si>
+  <si>
+    <t>16513698</t>
+  </si>
+  <si>
+    <t>59782875</t>
+  </si>
+  <si>
+    <t>2822765</t>
+  </si>
+  <si>
+    <t>kidney failure</t>
+  </si>
+  <si>
+    <t>16513138</t>
+  </si>
+  <si>
+    <t>40126308</t>
+  </si>
+  <si>
+    <t>71673808</t>
+  </si>
+  <si>
+    <t>91583856</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>69247051</t>
+  </si>
+  <si>
+    <t>103185505</t>
+  </si>
+  <si>
+    <t>61086538</t>
+  </si>
+  <si>
+    <t>78371095</t>
+  </si>
+  <si>
+    <t>94138945</t>
+  </si>
+  <si>
+    <t>64127977</t>
+  </si>
+  <si>
+    <t>51659939</t>
+  </si>
+  <si>
+    <t>64133042</t>
+  </si>
+  <si>
+    <t>51795079</t>
+  </si>
+  <si>
     <t>4027653</t>
   </si>
   <si>
@@ -182,679 +836,58 @@
     <t>Living Beings</t>
   </si>
   <si>
-    <t>3170842</t>
-  </si>
-  <si>
-    <t>agranulocytosis</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>119021160</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>120707955</t>
+    <t>51381471</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>54364020</t>
   </si>
   <si>
     <t>is part of</t>
   </si>
   <si>
-    <t>117574291</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>150058986</t>
+    <t>52757557</t>
+  </si>
+  <si>
+    <t>58548834</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>51368564</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>65381417</t>
+  </si>
+  <si>
+    <t>53440672</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
+    <t>83683544</t>
   </si>
   <si>
     <t>does not occur in</t>
   </si>
   <si>
-    <t>131781462</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>117580013</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>119703879</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>124950062</t>
-  </si>
-  <si>
-    <t>is not process of</t>
-  </si>
-  <si>
-    <t>3814847</t>
-  </si>
-  <si>
-    <t>propylthiouracil</t>
-  </si>
-  <si>
-    <t>85420605</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>83600647</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>117467920</t>
-  </si>
-  <si>
-    <t>does not affect</t>
-  </si>
-  <si>
-    <t>120322336</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>82502579</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>189345907</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>155120395</t>
-  </si>
-  <si>
-    <t>does not cause</t>
-  </si>
-  <si>
-    <t>760557</t>
-  </si>
-  <si>
-    <t>mercazol</t>
-  </si>
-  <si>
-    <t>88586984</t>
-  </si>
-  <si>
-    <t>89775570</t>
-  </si>
-  <si>
-    <t>80464725</t>
-  </si>
-  <si>
-    <t>530621</t>
-  </si>
-  <si>
-    <t>thyrozol</t>
-  </si>
-  <si>
-    <t>89775566</t>
-  </si>
-  <si>
-    <t>88586811</t>
-  </si>
-  <si>
-    <t>80464721</t>
-  </si>
-  <si>
-    <t>51385</t>
-  </si>
-  <si>
-    <t>thiamazol henning</t>
-  </si>
-  <si>
-    <t>88586776</t>
-  </si>
-  <si>
-    <t>89775565</t>
-  </si>
-  <si>
-    <t>80464720</t>
-  </si>
-  <si>
-    <t>3364631</t>
-  </si>
-  <si>
-    <t>tapazole</t>
-  </si>
-  <si>
-    <t>88586615</t>
-  </si>
-  <si>
-    <t>89775561</t>
-  </si>
-  <si>
-    <t>80464716</t>
-  </si>
-  <si>
-    <t>3358847</t>
-  </si>
-  <si>
-    <t>metisol</t>
-  </si>
-  <si>
-    <t>88586662</t>
-  </si>
-  <si>
-    <t>89775562</t>
-  </si>
-  <si>
-    <t>80464717</t>
-  </si>
-  <si>
-    <t>2824587</t>
-  </si>
-  <si>
-    <t>strumazol</t>
-  </si>
-  <si>
-    <t>88586713</t>
-  </si>
-  <si>
-    <t>89775563</t>
-  </si>
-  <si>
-    <t>80464718</t>
-  </si>
-  <si>
-    <t>2824584</t>
-  </si>
-  <si>
-    <t>thiamazol hexal</t>
-  </si>
-  <si>
-    <t>89775567</t>
-  </si>
-  <si>
-    <t>88586850</t>
-  </si>
-  <si>
-    <t>80464722</t>
-  </si>
-  <si>
-    <t>2824475</t>
-  </si>
-  <si>
-    <t>tirodril</t>
-  </si>
-  <si>
-    <t>89775564</t>
-  </si>
-  <si>
-    <t>88586748</t>
-  </si>
-  <si>
-    <t>80464719</t>
-  </si>
-  <si>
-    <t>272715</t>
-  </si>
-  <si>
-    <t>methizol</t>
-  </si>
-  <si>
-    <t>89775571</t>
-  </si>
-  <si>
-    <t>88587012</t>
-  </si>
-  <si>
-    <t>80464726</t>
-  </si>
-  <si>
-    <t>2364704</t>
-  </si>
-  <si>
-    <t>favistan</t>
-  </si>
-  <si>
-    <t>88586937</t>
-  </si>
-  <si>
-    <t>89775569</t>
-  </si>
-  <si>
-    <t>80464724</t>
-  </si>
-  <si>
-    <t>127938978</t>
-  </si>
-  <si>
-    <t>4027386</t>
-  </si>
-  <si>
-    <t>methimazole</t>
-  </si>
-  <si>
-    <t>89775568</t>
-  </si>
-  <si>
-    <t>161439317</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>88586882</t>
-  </si>
-  <si>
-    <t>117869486</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>134811226</t>
-  </si>
-  <si>
-    <t>80464723</t>
-  </si>
-  <si>
-    <t>129106886</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>121126556</t>
-  </si>
-  <si>
-    <t>153736346</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>118946767</t>
-  </si>
-  <si>
-    <t>4048501</t>
-  </si>
-  <si>
-    <t>hydrogen peroxide</t>
-  </si>
-  <si>
-    <t>83593066</t>
-  </si>
-  <si>
-    <t>154855997</t>
-  </si>
-  <si>
-    <t>131072930</t>
-  </si>
-  <si>
-    <t>4049124</t>
-  </si>
-  <si>
-    <t>hyperthyroidism</t>
-  </si>
-  <si>
-    <t>82759486</t>
-  </si>
-  <si>
-    <t>106218413</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>129638974</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>5648228</t>
-  </si>
-  <si>
-    <t>therapeutic procedure</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>120196476</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>118402157</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>118125398</t>
-  </si>
-  <si>
-    <t>118176436</t>
-  </si>
-  <si>
-    <t>171037091</t>
-  </si>
-  <si>
-    <t>complicates</t>
-  </si>
-  <si>
-    <t>118418351</t>
-  </si>
-  <si>
-    <t>189534553</t>
-  </si>
-  <si>
-    <t>136662443</t>
-  </si>
-  <si>
-    <t>118781199</t>
-  </si>
-  <si>
-    <t>790153</t>
-  </si>
-  <si>
-    <t>hepatitis, drug-induced</t>
-  </si>
-  <si>
-    <t>82758804</t>
-  </si>
-  <si>
-    <t>178994248</t>
-  </si>
-  <si>
-    <t>4989214</t>
-  </si>
-  <si>
-    <t>autoimmune hemolytic anemia</t>
-  </si>
-  <si>
-    <t>82758047</t>
-  </si>
-  <si>
-    <t>106309627</t>
-  </si>
-  <si>
-    <t>3814649</t>
-  </si>
-  <si>
-    <t>seizures</t>
-  </si>
-  <si>
-    <t>82761815</t>
-  </si>
-  <si>
-    <t>106309631</t>
-  </si>
-  <si>
-    <t>3170803</t>
-  </si>
-  <si>
-    <t>abdominal pain</t>
-  </si>
-  <si>
-    <t>82757839</t>
-  </si>
-  <si>
-    <t>106309685</t>
-  </si>
-  <si>
-    <t>2069033</t>
-  </si>
-  <si>
-    <t>ugt1a1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>Genes &amp; Molecular Sequences</t>
-  </si>
-  <si>
-    <t>89545367</t>
-  </si>
-  <si>
-    <t>86006577</t>
-  </si>
-  <si>
-    <t>is tributary of</t>
-  </si>
-  <si>
-    <t>94686869</t>
-  </si>
-  <si>
-    <t>gene product variant causes</t>
-  </si>
-  <si>
-    <t>1731240</t>
-  </si>
-  <si>
-    <t>tp53 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>88432506</t>
-  </si>
-  <si>
-    <t>89226498</t>
-  </si>
-  <si>
-    <t>94914422</t>
-  </si>
-  <si>
-    <t>gene product is biomarker type</t>
-  </si>
-  <si>
-    <t>2476543</t>
-  </si>
-  <si>
-    <t>tnf (homo sapiens)</t>
-  </si>
-  <si>
-    <t>89983811</t>
-  </si>
-  <si>
-    <t>94914414</t>
-  </si>
-  <si>
-    <t>167603778</t>
-  </si>
-  <si>
-    <t>augments</t>
-  </si>
-  <si>
-    <t>836319</t>
-  </si>
-  <si>
-    <t>drug toxicity</t>
-  </si>
-  <si>
-    <t>82759026</t>
-  </si>
-  <si>
-    <t>145514844</t>
-  </si>
-  <si>
-    <t>607167</t>
-  </si>
-  <si>
-    <t>hypertensive disease</t>
-  </si>
-  <si>
-    <t>82759435</t>
-  </si>
-  <si>
-    <t>82759407</t>
-  </si>
-  <si>
-    <t>137618085</t>
-  </si>
-  <si>
-    <t>527091</t>
-  </si>
-  <si>
-    <t>liver diseases</t>
-  </si>
-  <si>
-    <t>82760662</t>
-  </si>
-  <si>
-    <t>120671597</t>
-  </si>
-  <si>
-    <t>5011221</t>
-  </si>
-  <si>
-    <t>vomiting</t>
-  </si>
-  <si>
-    <t>82762067</t>
-  </si>
-  <si>
-    <t>179118685</t>
-  </si>
-  <si>
-    <t>4868219</t>
-  </si>
-  <si>
-    <t>liver dysfunction</t>
-  </si>
-  <si>
-    <t>82760661</t>
-  </si>
-  <si>
-    <t>137678173</t>
-  </si>
-  <si>
-    <t>432075</t>
-  </si>
-  <si>
-    <t>anemia</t>
-  </si>
-  <si>
-    <t>82757951</t>
-  </si>
-  <si>
-    <t>123646429</t>
-  </si>
-  <si>
-    <t>122871083</t>
-  </si>
-  <si>
-    <t>122871242</t>
-  </si>
-  <si>
-    <t>106309444</t>
-  </si>
-  <si>
-    <t>4048874</t>
-  </si>
-  <si>
-    <t>nausea</t>
-  </si>
-  <si>
-    <t>82761115</t>
-  </si>
-  <si>
-    <t>178931498</t>
-  </si>
-  <si>
-    <t>4047527</t>
-  </si>
-  <si>
-    <t>graves disease</t>
-  </si>
-  <si>
-    <t>82759211</t>
-  </si>
-  <si>
-    <t>181621523</t>
-  </si>
-  <si>
-    <t>135470686</t>
-  </si>
-  <si>
-    <t>106309491</t>
-  </si>
-  <si>
-    <t>132626335</t>
-  </si>
-  <si>
-    <t>128020578</t>
-  </si>
-  <si>
-    <t>4028736</t>
-  </si>
-  <si>
-    <t>necrosis</t>
-  </si>
-  <si>
-    <t>Physiology</t>
-  </si>
-  <si>
-    <t>82761143</t>
-  </si>
-  <si>
-    <t>123604789</t>
-  </si>
-  <si>
-    <t>126720004</t>
-  </si>
-  <si>
-    <t>3815826</t>
-  </si>
-  <si>
-    <t>thyroid diseases</t>
-  </si>
-  <si>
-    <t>82762011</t>
-  </si>
-  <si>
-    <t>126185433</t>
-  </si>
-  <si>
-    <t>2822765</t>
-  </si>
-  <si>
-    <t>kidney failure</t>
-  </si>
-  <si>
-    <t>82761451</t>
-  </si>
-  <si>
-    <t>157766281</t>
-  </si>
-  <si>
-    <t>137991536</t>
-  </si>
-  <si>
-    <t>106309635</t>
-  </si>
-  <si>
     <t>816241</t>
   </si>
   <si>
     <t>canis familiaris</t>
   </si>
   <si>
-    <t>119399990</t>
-  </si>
-  <si>
-    <t>124274686</t>
+    <t>53133477</t>
+  </si>
+  <si>
+    <t>57894297</t>
   </si>
   <si>
     <t>3043633</t>
@@ -863,10 +896,82 @@
     <t>transplant recipients</t>
   </si>
   <si>
-    <t>196727765</t>
-  </si>
-  <si>
-    <t>129103246</t>
+    <t>130508721</t>
+  </si>
+  <si>
+    <t>62724505</t>
+  </si>
+  <si>
+    <t>2986464</t>
+  </si>
+  <si>
+    <t>injection procedure</t>
+  </si>
+  <si>
+    <t>123035272</t>
+  </si>
+  <si>
+    <t>64875871</t>
+  </si>
+  <si>
+    <t>91931169</t>
+  </si>
+  <si>
+    <t>3739176</t>
+  </si>
+  <si>
+    <t>thyroid preparations</t>
+  </si>
+  <si>
+    <t>78447442</t>
+  </si>
+  <si>
+    <t>52757159</t>
+  </si>
+  <si>
+    <t>59578085</t>
+  </si>
+  <si>
+    <t>130801394</t>
+  </si>
+  <si>
+    <t>2940375</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>76470242</t>
+  </si>
+  <si>
+    <t>124923777</t>
+  </si>
+  <si>
+    <t>94761</t>
+  </si>
+  <si>
+    <t>administration, oral</t>
+  </si>
+  <si>
+    <t>109633585</t>
+  </si>
+  <si>
+    <t>56503143</t>
+  </si>
+  <si>
+    <t>5647992</t>
+  </si>
+  <si>
+    <t>cavia</t>
+  </si>
+  <si>
+    <t>61766253</t>
+  </si>
+  <si>
+    <t>76296046</t>
+  </si>
+  <si>
+    <t>74068972</t>
   </si>
   <si>
     <t>5308239</t>
@@ -875,106 +980,16 @@
     <t>woman</t>
   </si>
   <si>
-    <t>137167810</t>
-  </si>
-  <si>
-    <t>151041589</t>
-  </si>
-  <si>
-    <t>118632708</t>
-  </si>
-  <si>
-    <t>129695389</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>135683482</t>
-  </si>
-  <si>
-    <t>169371132</t>
-  </si>
-  <si>
-    <t>130520472</t>
-  </si>
-  <si>
-    <t>124087865</t>
-  </si>
-  <si>
-    <t>117868141</t>
-  </si>
-  <si>
-    <t>160421810</t>
-  </si>
-  <si>
-    <t>144853775</t>
-  </si>
-  <si>
-    <t>130525693</t>
-  </si>
-  <si>
-    <t>118011469</t>
-  </si>
-  <si>
-    <t>3739176</t>
-  </si>
-  <si>
-    <t>thyroid preparations</t>
-  </si>
-  <si>
-    <t>144837604</t>
-  </si>
-  <si>
-    <t>119020701</t>
-  </si>
-  <si>
-    <t>125989359</t>
-  </si>
-  <si>
-    <t>196990876</t>
-  </si>
-  <si>
-    <t>2940375</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>142855634</t>
-  </si>
-  <si>
-    <t>191113316</t>
-  </si>
-  <si>
-    <t>94761</t>
-  </si>
-  <si>
-    <t>administration, oral</t>
-  </si>
-  <si>
-    <t>175820446</t>
-  </si>
-  <si>
-    <t>122928786</t>
-  </si>
-  <si>
-    <t>5647992</t>
-  </si>
-  <si>
-    <t>cavia</t>
-  </si>
-  <si>
-    <t>128178084</t>
-  </si>
-  <si>
-    <t>140458635</t>
-  </si>
-  <si>
-    <t>140363833</t>
+    <t>84658809</t>
+  </si>
+  <si>
+    <t>70750769</t>
+  </si>
+  <si>
+    <t>52392191</t>
+  </si>
+  <si>
+    <t>66334415</t>
   </si>
   <si>
     <t>5261105</t>
@@ -983,10 +998,10 @@
     <t>antimalarials</t>
   </si>
   <si>
-    <t>158748631</t>
-  </si>
-  <si>
-    <t>193941640</t>
+    <t>92570669</t>
+  </si>
+  <si>
+    <t>127725348</t>
   </si>
   <si>
     <t>4877776</t>
@@ -995,13 +1010,13 @@
     <t>rattus norvegicus</t>
   </si>
   <si>
-    <t>128178168</t>
-  </si>
-  <si>
-    <t>140458735</t>
-  </si>
-  <si>
-    <t>118414436</t>
+    <t>61766349</t>
+  </si>
+  <si>
+    <t>74069156</t>
+  </si>
+  <si>
+    <t>52170687</t>
   </si>
   <si>
     <t>4040861</t>
@@ -1010,31 +1025,16 @@
     <t>complication</t>
   </si>
   <si>
-    <t>177432442</t>
-  </si>
-  <si>
-    <t>178730441</t>
+    <t>111222386</t>
+  </si>
+  <si>
+    <t>112503538</t>
   </si>
   <si>
     <t>precedes</t>
   </si>
   <si>
-    <t>198201495</t>
-  </si>
-  <si>
-    <t>2986464</t>
-  </si>
-  <si>
-    <t>injection procedure</t>
-  </si>
-  <si>
-    <t>189180350</t>
-  </si>
-  <si>
-    <t>158100493</t>
-  </si>
-  <si>
-    <t>131259476</t>
+    <t>132046376</t>
   </si>
   <si>
     <t>243455</t>
@@ -1043,10 +1043,10 @@
     <t>obesity</t>
   </si>
   <si>
-    <t>182087315</t>
-  </si>
-  <si>
-    <t>120191030</t>
+    <t>115890094</t>
+  </si>
+  <si>
+    <t>53874908</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1133.0</v>
+        <v>148.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1269,69 +1269,63 @@
         <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>61</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>63</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>65</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>66</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>67</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>68</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>69</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>70</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>71</v>
-      </c>
-      <c r="X2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>118.0</v>
+        <v>80.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1343,64 +1337,40 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="s">
         <v>75</v>
       </c>
-      <c r="F3" t="s">
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
         <v>76</v>
       </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" t="s">
-        <v>81</v>
-      </c>
       <c r="P3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R3" t="s">
-        <v>84</v>
-      </c>
-      <c r="S3" t="s">
-        <v>85</v>
-      </c>
-      <c r="T3" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" t="s">
-        <v>87</v>
-      </c>
-      <c r="V3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W3" t="s">
-        <v>89</v>
-      </c>
-      <c r="X3" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -1417,40 +1387,40 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="L4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" t="s">
         <v>80</v>
       </c>
-      <c r="M4" t="s">
-        <v>94</v>
-      </c>
       <c r="N4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1467,40 +1437,40 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
         <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -1517,40 +1487,40 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M6" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="P6" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1567,40 +1537,40 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
         <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1617,40 +1587,40 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
         <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M8" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="O8" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="P8" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -1667,40 +1637,40 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="O9" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -1717,40 +1687,40 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M10" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="O10" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1767,40 +1737,40 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M11" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="N11" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="O11" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="P11" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -1817,45 +1787,51 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M12" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="N12" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="O12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="P12" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>122</v>
+      </c>
+      <c r="R12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>80.0</v>
+        <v>73.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -1867,46 +1843,40 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M13" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="N13" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="P13" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>141</v>
-      </c>
-      <c r="R13" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -1923,82 +1893,82 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" t="s">
+        <v>135</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
+        <v>137</v>
+      </c>
+      <c r="P14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>138</v>
+      </c>
+      <c r="R14" t="s">
+        <v>71</v>
+      </c>
+      <c r="S14" t="s">
+        <v>139</v>
+      </c>
+      <c r="T14" t="s">
+        <v>129</v>
+      </c>
+      <c r="U14" t="s">
+        <v>140</v>
+      </c>
+      <c r="V14" t="s">
+        <v>69</v>
+      </c>
+      <c r="W14" t="s">
+        <v>141</v>
+      </c>
+      <c r="X14" t="s">
         <v>142</v>
       </c>
-      <c r="F14" t="s">
+      <c r="Y14" t="s">
         <v>143</v>
       </c>
-      <c r="G14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="Z14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA14" t="s">
         <v>144</v>
       </c>
-      <c r="L14" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="AB14" t="s">
         <v>145</v>
       </c>
-      <c r="N14" t="s">
+      <c r="AC14" t="s">
         <v>146</v>
       </c>
-      <c r="O14" t="s">
+      <c r="AD14" t="s">
         <v>147</v>
-      </c>
-      <c r="P14" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>148</v>
-      </c>
-      <c r="R14" t="s">
-        <v>149</v>
-      </c>
-      <c r="S14" t="s">
-        <v>150</v>
-      </c>
-      <c r="T14" t="s">
-        <v>68</v>
-      </c>
-      <c r="U14" t="s">
-        <v>151</v>
-      </c>
-      <c r="V14" t="s">
-        <v>86</v>
-      </c>
-      <c r="W14" t="s">
-        <v>152</v>
-      </c>
-      <c r="X14" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -2015,45 +1985,45 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M15" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="O15" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P15" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -2065,45 +2035,45 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M16" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -2115,76 +2085,40 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="M17" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="N17" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>178</v>
-      </c>
-      <c r="R17" t="s">
-        <v>84</v>
-      </c>
-      <c r="S17" t="s">
-        <v>179</v>
-      </c>
-      <c r="T17" t="s">
-        <v>180</v>
-      </c>
-      <c r="U17" t="s">
-        <v>181</v>
-      </c>
-      <c r="V17" t="s">
-        <v>68</v>
-      </c>
-      <c r="W17" t="s">
-        <v>182</v>
-      </c>
-      <c r="X17" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
@@ -2201,34 +2135,34 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M18" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
@@ -2245,34 +2179,34 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M19" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
@@ -2289,34 +2223,34 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K20" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M20" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
@@ -2333,34 +2267,34 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M21" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="N21" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22">
@@ -2377,45 +2311,45 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="M22" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="O22" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -2427,40 +2361,76 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="G23" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" t="s">
+        <v>194</v>
+      </c>
+      <c r="N23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" t="s">
+        <v>196</v>
+      </c>
+      <c r="P23" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>197</v>
+      </c>
+      <c r="R23" t="s">
+        <v>198</v>
+      </c>
+      <c r="S23" t="s">
+        <v>199</v>
+      </c>
+      <c r="T23" t="s">
+        <v>71</v>
+      </c>
+      <c r="U23" t="s">
+        <v>200</v>
+      </c>
+      <c r="V23" t="s">
+        <v>129</v>
+      </c>
+      <c r="W23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X23" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA23" t="s">
         <v>203</v>
       </c>
-      <c r="H23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" t="s">
-        <v>211</v>
-      </c>
-      <c r="L23" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" t="s">
-        <v>212</v>
-      </c>
-      <c r="N23" t="s">
-        <v>80</v>
-      </c>
-      <c r="O23" t="s">
-        <v>213</v>
-      </c>
-      <c r="P23" t="s">
-        <v>214</v>
+      <c r="AB23" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -2477,40 +2447,52 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K24" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="M24" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="N24" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="O24" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="P24" t="s">
-        <v>220</v>
+        <v>159</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>209</v>
+      </c>
+      <c r="R24" t="s">
+        <v>193</v>
+      </c>
+      <c r="S24" t="s">
+        <v>210</v>
+      </c>
+      <c r="T24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="25">
@@ -2527,34 +2509,34 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K25" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M25" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="N25" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26">
@@ -2571,40 +2553,40 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K26" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="M26" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="N26" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="O26" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27">
@@ -2621,34 +2603,34 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M27" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="N27" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
@@ -2665,34 +2647,34 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F28" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K28" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M28" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="N28" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
@@ -2709,34 +2691,34 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="G29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K29" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M29" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="N29" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -2753,52 +2735,34 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F30" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K30" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M30" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="N30" t="s">
-        <v>176</v>
-      </c>
-      <c r="O30" t="s">
-        <v>246</v>
-      </c>
-      <c r="P30" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>247</v>
-      </c>
-      <c r="R30" t="s">
-        <v>169</v>
-      </c>
-      <c r="S30" t="s">
-        <v>248</v>
-      </c>
-      <c r="T30" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
@@ -2815,34 +2779,58 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F31" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K31" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M31" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="N31" t="s">
-        <v>149</v>
+        <v>71</v>
+      </c>
+      <c r="O31" t="s">
+        <v>240</v>
+      </c>
+      <c r="P31" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>241</v>
+      </c>
+      <c r="R31" t="s">
+        <v>159</v>
+      </c>
+      <c r="S31" t="s">
+        <v>242</v>
+      </c>
+      <c r="T31" t="s">
+        <v>157</v>
+      </c>
+      <c r="U31" t="s">
+        <v>243</v>
+      </c>
+      <c r="V31" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32">
@@ -2859,58 +2847,40 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F32" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>246</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K32" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="L32" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M32" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="N32" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="O32" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="P32" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>258</v>
-      </c>
-      <c r="R32" t="s">
-        <v>167</v>
-      </c>
-      <c r="S32" t="s">
-        <v>259</v>
-      </c>
-      <c r="T32" t="s">
-        <v>180</v>
-      </c>
-      <c r="U32" t="s">
-        <v>260</v>
-      </c>
-      <c r="V32" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
@@ -2927,40 +2897,34 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G33" t="s">
-        <v>263</v>
+        <v>57</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="L33" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M33" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="N33" t="s">
-        <v>167</v>
-      </c>
-      <c r="O33" t="s">
-        <v>266</v>
-      </c>
-      <c r="P33" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34">
@@ -2977,39 +2941,51 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F34" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="L34" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M34" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="N34" t="s">
-        <v>169</v>
+        <v>157</v>
+      </c>
+      <c r="O34" t="s">
+        <v>258</v>
+      </c>
+      <c r="P34" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>259</v>
+      </c>
+      <c r="R34" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="B35" t="s">
         <v>50</v>
@@ -3021,51 +2997,81 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F35" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K35" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="L35" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="M35" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="N35" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="O35" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="Q35" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="R35" t="s">
-        <v>167</v>
+        <v>63</v>
+      </c>
+      <c r="S35" t="s">
+        <v>266</v>
+      </c>
+      <c r="T35" t="s">
+        <v>65</v>
+      </c>
+      <c r="U35" t="s">
+        <v>267</v>
+      </c>
+      <c r="V35" t="s">
+        <v>123</v>
+      </c>
+      <c r="W35" t="s">
+        <v>268</v>
+      </c>
+      <c r="X35" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
@@ -3077,39 +3083,75 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
+        <v>271</v>
+      </c>
+      <c r="F36" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" t="s">
+        <v>273</v>
+      </c>
+      <c r="H36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" t="s">
+        <v>274</v>
+      </c>
+      <c r="L36" t="s">
+        <v>275</v>
+      </c>
+      <c r="M36" t="s">
+        <v>276</v>
+      </c>
+      <c r="N36" t="s">
         <v>277</v>
       </c>
-      <c r="F36" t="s">
+      <c r="O36" t="s">
         <v>278</v>
       </c>
-      <c r="G36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" t="s">
-        <v>56</v>
-      </c>
-      <c r="I36" t="s">
-        <v>57</v>
-      </c>
-      <c r="J36" t="s">
-        <v>58</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="P36" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q36" t="s">
         <v>279</v>
       </c>
-      <c r="L36" t="s">
-        <v>60</v>
-      </c>
-      <c r="M36" t="s">
+      <c r="R36" t="s">
         <v>280</v>
       </c>
-      <c r="N36" t="s">
-        <v>70</v>
+      <c r="S36" t="s">
+        <v>281</v>
+      </c>
+      <c r="T36" t="s">
+        <v>282</v>
+      </c>
+      <c r="U36" t="s">
+        <v>283</v>
+      </c>
+      <c r="V36" t="s">
+        <v>129</v>
+      </c>
+      <c r="W36" t="s">
+        <v>284</v>
+      </c>
+      <c r="X36" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -3121,39 +3163,39 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F37" t="s">
+        <v>289</v>
+      </c>
+      <c r="G37" t="s">
+        <v>273</v>
+      </c>
+      <c r="H37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" t="s">
+        <v>123</v>
+      </c>
+      <c r="M37" t="s">
+        <v>291</v>
+      </c>
+      <c r="N37" t="s">
         <v>282</v>
-      </c>
-      <c r="G37" t="s">
-        <v>55</v>
-      </c>
-      <c r="H37" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" t="s">
-        <v>57</v>
-      </c>
-      <c r="J37" t="s">
-        <v>58</v>
-      </c>
-      <c r="K37" t="s">
-        <v>283</v>
-      </c>
-      <c r="L37" t="s">
-        <v>60</v>
-      </c>
-      <c r="M37" t="s">
-        <v>284</v>
-      </c>
-      <c r="N37" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
@@ -3165,51 +3207,39 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F38" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="G38" t="s">
-        <v>55</v>
+        <v>273</v>
       </c>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K38" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="M38" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="N38" t="s">
-        <v>60</v>
-      </c>
-      <c r="O38" t="s">
-        <v>289</v>
-      </c>
-      <c r="P38" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>290</v>
-      </c>
-      <c r="R38" t="s">
-        <v>72</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
@@ -3221,76 +3251,40 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F39" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G39" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L39" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="M39" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="N39" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="O39" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P39" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>296</v>
-      </c>
-      <c r="R39" t="s">
-        <v>68</v>
-      </c>
-      <c r="S39" t="s">
-        <v>297</v>
-      </c>
-      <c r="T39" t="s">
-        <v>153</v>
-      </c>
-      <c r="U39" t="s">
-        <v>298</v>
-      </c>
-      <c r="V39" t="s">
-        <v>88</v>
-      </c>
-      <c r="W39" t="s">
-        <v>299</v>
-      </c>
-      <c r="X39" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>300</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40">
@@ -3307,46 +3301,46 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
+        <v>301</v>
+      </c>
+      <c r="F40" t="s">
         <v>302</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" t="s">
         <v>303</v>
       </c>
-      <c r="G40" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" t="s">
-        <v>57</v>
-      </c>
-      <c r="J40" t="s">
-        <v>58</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
+        <v>193</v>
+      </c>
+      <c r="M40" t="s">
         <v>304</v>
       </c>
-      <c r="L40" t="s">
-        <v>176</v>
-      </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
+        <v>159</v>
+      </c>
+      <c r="O40" t="s">
         <v>305</v>
       </c>
-      <c r="N40" t="s">
-        <v>169</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q40" t="s">
         <v>306</v>
       </c>
-      <c r="P40" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>307</v>
-      </c>
       <c r="R40" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -3363,34 +3357,34 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
+        <v>307</v>
+      </c>
+      <c r="F41" t="s">
         <v>308</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" t="s">
         <v>309</v>
       </c>
-      <c r="G41" t="s">
-        <v>58</v>
-      </c>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-      <c r="I41" t="s">
-        <v>57</v>
-      </c>
-      <c r="J41" t="s">
-        <v>58</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
+        <v>123</v>
+      </c>
+      <c r="M41" t="s">
         <v>310</v>
       </c>
-      <c r="L41" t="s">
-        <v>60</v>
-      </c>
-      <c r="M41" t="s">
-        <v>311</v>
-      </c>
       <c r="N41" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42">
@@ -3407,34 +3401,34 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
+        <v>311</v>
+      </c>
+      <c r="F42" t="s">
         <v>312</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
+        <v>191</v>
+      </c>
+      <c r="H42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" t="s">
         <v>313</v>
       </c>
-      <c r="G42" t="s">
-        <v>172</v>
-      </c>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-      <c r="I42" t="s">
-        <v>57</v>
-      </c>
-      <c r="J42" t="s">
-        <v>58</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M42" t="s">
         <v>314</v>
       </c>
-      <c r="L42" t="s">
-        <v>174</v>
-      </c>
-      <c r="M42" t="s">
-        <v>315</v>
-      </c>
       <c r="N42" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43">
@@ -3451,40 +3445,40 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
+        <v>315</v>
+      </c>
+      <c r="F43" t="s">
         <v>316</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
+        <v>273</v>
+      </c>
+      <c r="H43" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" t="s">
         <v>317</v>
       </c>
-      <c r="G43" t="s">
-        <v>55</v>
-      </c>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-      <c r="I43" t="s">
-        <v>57</v>
-      </c>
-      <c r="J43" t="s">
-        <v>58</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>123</v>
+      </c>
+      <c r="M43" t="s">
         <v>318</v>
       </c>
-      <c r="L43" t="s">
-        <v>60</v>
-      </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
+        <v>282</v>
+      </c>
+      <c r="O43" t="s">
         <v>319</v>
       </c>
-      <c r="N43" t="s">
-        <v>74</v>
-      </c>
-      <c r="O43" t="s">
-        <v>320</v>
-      </c>
       <c r="P43" t="s">
-        <v>70</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44">
@@ -3501,34 +3495,46 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
+        <v>320</v>
+      </c>
+      <c r="F44" t="s">
         <v>321</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
+        <v>273</v>
+      </c>
+      <c r="H44" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" t="s">
         <v>322</v>
       </c>
-      <c r="G44" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-      <c r="I44" t="s">
-        <v>57</v>
-      </c>
-      <c r="J44" t="s">
-        <v>58</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
+        <v>123</v>
+      </c>
+      <c r="M44" t="s">
         <v>323</v>
       </c>
-      <c r="L44" t="s">
-        <v>146</v>
-      </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
+        <v>277</v>
+      </c>
+      <c r="O44" t="s">
         <v>324</v>
       </c>
-      <c r="N44" t="s">
-        <v>84</v>
+      <c r="P44" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>325</v>
+      </c>
+      <c r="R44" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="45">
@@ -3545,40 +3551,34 @@
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F45" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L45" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="M45" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N45" t="s">
-        <v>74</v>
-      </c>
-      <c r="O45" t="s">
-        <v>329</v>
-      </c>
-      <c r="P45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -3601,34 +3601,34 @@
         <v>331</v>
       </c>
       <c r="G46" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
       <c r="H46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s">
         <v>332</v>
       </c>
       <c r="L46" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="M46" t="s">
         <v>333</v>
       </c>
       <c r="N46" t="s">
+        <v>280</v>
+      </c>
+      <c r="O46" t="s">
         <v>334</v>
       </c>
-      <c r="O46" t="s">
-        <v>335</v>
-      </c>
       <c r="P46" t="s">
-        <v>84</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47">
@@ -3645,40 +3645,40 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
+        <v>335</v>
+      </c>
+      <c r="F47" t="s">
         <v>336</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47" t="s">
         <v>337</v>
       </c>
-      <c r="G47" t="s">
-        <v>172</v>
-      </c>
-      <c r="H47" t="s">
-        <v>56</v>
-      </c>
-      <c r="I47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J47" t="s">
-        <v>58</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
+        <v>142</v>
+      </c>
+      <c r="M47" t="s">
         <v>338</v>
       </c>
-      <c r="L47" t="s">
-        <v>176</v>
-      </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>339</v>
-      </c>
-      <c r="N47" t="s">
-        <v>153</v>
       </c>
       <c r="O47" t="s">
         <v>340</v>
       </c>
       <c r="P47" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48">
@@ -3701,28 +3701,28 @@
         <v>342</v>
       </c>
       <c r="G48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K48" t="s">
         <v>343</v>
       </c>
       <c r="L48" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="M48" t="s">
         <v>344</v>
       </c>
       <c r="N48" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
